--- a/stimuli_training_standard.xlsx
+++ b/stimuli_training_standard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\MATLAB\TypiTarget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5411A3-3160-4CBD-A44B-B0E99ED2DC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FA3E16-670C-4571-988D-A00CF1821A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,109 +52,109 @@
     <t>p_perceptual</t>
   </si>
   <si>
-    <t>adrien-olichon-DBE0TsK8yM0-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>adrien-olichon-XB1W7TlTaxQ-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>alexander-fae-TivEEYzzhik-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>andrew-seaman-sQopSb2K0CU-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>andrius-budrikas-kGP7rp2gWbc-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>bar-658615_1280.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>cody-chan-jHyxPnJTvIQ-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>dewi-ika-putri-ZDD7O-grjBo-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>glenov-brankovic-e4B5AvA7Jqo-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>gor-davtyan-0BIvjaQwvQQ-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>hotel-1191718_1280.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>jason-briscoe-1x5fqDOPXDE-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>jason-leung-poI7DelFiVA-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>kajetan-powolny-Ku8e_C-ONQE-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>kevin-charit-QusXD31z0G4-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>kitchen-6878026_1280.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>laura-peruchi-dMU-L8NWn4E-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>namnso-ukpanah-5izEn-YcRbI-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>nick-karvounis-Ciqxn7FE4vE-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>pexels-igor-starkov-233202-1307698.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>pexels-kaboompics-6267.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>pexels-lemmer-2894275.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>pexels-naimbic-2290753.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>pexels-orlovamaria-4913313.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>pexels-pixabay-262047.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>pexels-reneterp-1581384.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>pexels-wb2008-2290070.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>piotr-szulawski-DCmUhk54F6M-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>restaurant-1343327_1280.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>rodeo-project-management-software-PYqzYhTNjho-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>samuel-foster-LxD9fZYR2uw-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>table-791167_1280.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>toa-heftiba-TwtUYtDOv6w-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
-    <t>vitor-paladini-V2nhzJm-2FM-unsplash.jpg_resized.jpg</t>
-  </si>
-  <si>
     <t>standard</t>
+  </si>
+  <si>
+    <t>adrien-olichon-DBE0TsK8yM0-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>adrien-olichon-XB1W7TlTaxQ-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>alexander-fae-TivEEYzzhik-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>andrew-seaman-sQopSb2K0CU-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>andrius-budrikas-kGP7rp2gWbc-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>bar-658615_1280_resized.jpg</t>
+  </si>
+  <si>
+    <t>cody-chan-jHyxPnJTvIQ-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>dewi-ika-putri-ZDD7O-grjBo-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>glenov-brankovic-e4B5AvA7Jqo-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>gor-davtyan-0BIvjaQwvQQ-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>hotel-1191718_1280_resized.jpg</t>
+  </si>
+  <si>
+    <t>jason-briscoe-1x5fqDOPXDE-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>jason-leung-poI7DelFiVA-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>kajetan-powolny-Ku8e_C-ONQE-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>kevin-charit-QusXD31z0G4-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>kitchen-6878026_1280_resized.jpg</t>
+  </si>
+  <si>
+    <t>laura-peruchi-dMU-L8NWn4E-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>namnso-ukpanah-5izEn-YcRbI-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>nick-karvounis-Ciqxn7FE4vE-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>pexels-igor-starkov-233202-1307698_resized.jpg</t>
+  </si>
+  <si>
+    <t>pexels-kaboompics-6267_resized.jpg</t>
+  </si>
+  <si>
+    <t>pexels-lemmer-2894275_resized.jpg</t>
+  </si>
+  <si>
+    <t>pexels-naimbic-2290753_resized.jpg</t>
+  </si>
+  <si>
+    <t>pexels-orlovamaria-4913313_resized.jpg</t>
+  </si>
+  <si>
+    <t>pexels-pixabay-262047_resized.jpg</t>
+  </si>
+  <si>
+    <t>pexels-reneterp-1581384_resized.jpg</t>
+  </si>
+  <si>
+    <t>pexels-wb2008-2290070_resized.jpg</t>
+  </si>
+  <si>
+    <t>piotr-szulawski-DCmUhk54F6M-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>restaurant-1343327_1280_resized.jpg</t>
+  </si>
+  <si>
+    <t>rodeo-project-management-software-PYqzYhTNjho-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>samuel-foster-LxD9fZYR2uw-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>table-791167_1280_resized.jpg</t>
+  </si>
+  <si>
+    <t>toa-heftiba-TwtUYtDOv6w-unsplash_resized.jpg</t>
+  </si>
+  <si>
+    <t>vitor-paladini-V2nhzJm-2FM-unsplash_resized.jpg</t>
   </si>
 </sst>
 </file>
@@ -509,13 +509,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="71.36328125" customWidth="1"/>
+    <col min="2" max="2" width="62.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -552,10 +552,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -616,10 +616,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -648,10 +648,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -680,10 +680,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -744,10 +744,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -776,10 +776,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -808,10 +808,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -840,10 +840,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -936,10 +936,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -968,10 +968,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1000,10 +1000,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1064,10 +1064,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1096,10 +1096,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1128,10 +1128,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1160,10 +1160,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1192,10 +1192,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1288,10 +1288,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1320,10 +1320,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1352,10 +1352,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1384,10 +1384,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1416,10 +1416,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1448,10 +1448,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1480,10 +1480,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1512,10 +1512,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1608,10 +1608,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
         <v>44</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
       </c>
       <c r="C35">
         <v>0</v>
